--- a/Absent.xlsx
+++ b/Absent.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SachinDev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SachinDev\Desktop\firstfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87103567-FE6B-4367-8F20-BA1DD41C17B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D5B5CC-3619-4027-A706-120FBF6F9261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{B18F1C8D-8492-4902-9FB8-B66DF32AD6DC}"/>
   </bookViews>
